--- a/biology/Mycologie/Gaeumannomyces_graminis/Gaeumannomyces_graminis.xlsx
+++ b/biology/Mycologie/Gaeumannomyces_graminis/Gaeumannomyces_graminis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaeumannomyces graminis est une espèce de champignons ascomycètes de la famille des Magnaporthaceae.
 Ce champignon phytopathogène est responsable de la maladie du piétin-échaudage qui affecte diverses espèces de céréales et autres graminées. Il peut également provoquer des fontes de semis.
@@ -512,7 +524,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champignon se conserve dans le sol sur des débris végétaux. La contamination des racines a lieu en automne ou en hiver. Le mycélium ectotrophe se transmet de plante à plante au niveau des racines. Le champignon envahit la base de la tige et y forme des périthèces.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (26 juin 2015)[1] : 	
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 juin 2015) : 	
 Gaeumannomyces cariceti (Berk. &amp; Broome) Lar.N. Vassiljeva 1998
 Gaeumannomyces graminis var. avenae (E.M. Turner) Dennis 1960
 Gaeumannomyces graminis var. graminis (Sacc.) Arx &amp; D.L. Olivier 1952
@@ -564,9 +583,43 @@
 Ophiochaeta graminis (Sacc.) Hara 1916
 Rhaphidophora graminis Sacc. 1875
 Rhaphidospora cariceti (Berk. &amp; Broome) Cooke
-Sphaeria cariceti Berk. &amp; Broome 1861
-Liste des variétés
-Selon NCBI  (26 juin 2015)[2] :
+Sphaeria cariceti Berk. &amp; Broome 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gaeumannomyces_graminis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaeumannomyces_graminis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 juin 2015) :
 variété Gaeumannomyces graminis var. avenae
 variété Gaeumannomyces graminis var. graminis
 variété Gaeumannomyces graminis var. maydis
